--- a/test files/da.aug31..xlsx
+++ b/test files/da.aug31..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscoded\Credit_App\Credit_App\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E521E73-AA3D-42D5-910C-CDAC73EEF7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED933DD-23AE-4115-AF15-6096B647F312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statment" sheetId="6" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="SPO 14.03 TO 31.03 (2)" sheetId="21" r:id="rId9"/>
     <sheet name="SPO 01.04 TO 15.04" sheetId="13" r:id="rId10"/>
     <sheet name="SPO 01.04 TO 15.04 (2)" sheetId="22" r:id="rId11"/>
-    <sheet name="SPO 16.04 TO 27.04" sheetId="14" r:id="rId12"/>
-    <sheet name="SPO 28.04 TO 05.05 " sheetId="15" r:id="rId13"/>
+    <sheet name="SPO 16.04 TO 30.04" sheetId="14" r:id="rId12"/>
+    <sheet name="SPO 01.05 TO 05.05 " sheetId="15" r:id="rId13"/>
     <sheet name="SPO 06.05 TO 27.05" sheetId="16" r:id="rId14"/>
     <sheet name="SPO 28.05 TO 15.06" sheetId="17" r:id="rId15"/>
     <sheet name="SPO 16.06 TO 05.07" sheetId="18" r:id="rId16"/>
@@ -670,9 +670,6 @@
     <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,6 +690,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1074,7 +1072,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1183,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="52">
+      <c r="O2" s="60">
         <v>642.96</v>
       </c>
       <c r="P2" s="49"/>
@@ -1207,10 +1205,10 @@
       <c r="E3" s="4">
         <v>45020</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="58">
         <v>45150</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="58">
         <v>45155</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1237,8 +1235,7 @@
       <c r="N3" s="11">
         <v>150.04</v>
       </c>
-      <c r="O3" s="51">
-        <f>+(166.25*4)+(199.5*0.9*0.8)</f>
+      <c r="O3" s="60">
         <v>808.64</v>
       </c>
       <c r="P3" s="12"/>
@@ -1261,14 +1258,14 @@
       <c r="E4" s="4">
         <v>45020</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="58">
         <v>45150</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="58">
         <v>45155</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>14</v>
+      <c r="H4" s="59" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="41">
         <f t="shared" si="2"/>
@@ -1289,8 +1286,8 @@
         <v>5</v>
       </c>
       <c r="N4" s="41"/>
-      <c r="O4" s="51">
-        <v>790.4</v>
+      <c r="O4" s="60">
+        <v>775.2</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
@@ -1337,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="41"/>
-      <c r="O5" s="51">
+      <c r="O5" s="60">
         <v>1943.66</v>
       </c>
       <c r="P5" s="41"/>
@@ -1363,7 +1360,7 @@
       <c r="G6" s="4">
         <v>45156</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="59" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="41">
@@ -1385,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="51">
+      <c r="O6" s="60">
         <v>1016.96</v>
       </c>
       <c r="P6" s="41"/>
@@ -1411,7 +1408,7 @@
       <c r="G7" s="4">
         <v>45156</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="59" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="41">
@@ -1433,8 +1430,8 @@
         <v>5</v>
       </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="51">
-        <v>628.42999999999995</v>
+      <c r="O7" s="60">
+        <v>628.42499999999995</v>
       </c>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
@@ -1481,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="51">
+      <c r="O8" s="60">
         <v>1524.4</v>
       </c>
       <c r="P8" s="41"/>
@@ -1529,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="N9" s="41"/>
-      <c r="O9" s="51">
+      <c r="O9" s="60">
         <v>1657.9</v>
       </c>
       <c r="P9" s="12"/>
@@ -1576,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="41"/>
-      <c r="O10" s="51">
+      <c r="O10" s="60">
         <v>3021.9</v>
       </c>
       <c r="P10" s="12"/>
@@ -1603,7 +1600,7 @@
         <v>45161</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="41">
         <f t="shared" si="2"/>
@@ -1624,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="N11" s="41"/>
-      <c r="O11" s="51">
+      <c r="O11" s="60">
         <v>2025.05</v>
       </c>
       <c r="P11" s="12"/>
@@ -1672,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="N12" s="41"/>
-      <c r="O12" s="51">
+      <c r="O12" s="60">
         <v>860.25</v>
       </c>
       <c r="P12" s="12"/>
@@ -1690,7 +1687,7 @@
         <v>244376</v>
       </c>
       <c r="E13" s="4">
-        <v>45008</v>
+        <v>44933</v>
       </c>
       <c r="F13" s="4">
         <v>45152</v>
@@ -1720,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="N13" s="41"/>
-      <c r="O13" s="51">
+      <c r="O13" s="60">
         <v>1256</v>
       </c>
       <c r="P13" s="12"/>
@@ -1738,7 +1735,7 @@
         <v>244376</v>
       </c>
       <c r="E14" s="4">
-        <v>45008</v>
+        <v>44933</v>
       </c>
       <c r="F14" s="4">
         <v>45152</v>
@@ -1768,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="N14" s="41"/>
-      <c r="O14" s="51">
+      <c r="O14" s="60">
         <v>1286.9000000000001</v>
       </c>
       <c r="P14" s="12"/>
@@ -1816,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="N15" s="41"/>
-      <c r="O15" s="51">
+      <c r="O15" s="60">
         <v>771.27</v>
       </c>
       <c r="P15" s="12"/>
@@ -1864,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="N16" s="41"/>
-      <c r="O16" s="51">
+      <c r="O16" s="60">
         <v>902.88</v>
       </c>
       <c r="P16" s="41"/>
@@ -1911,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="N17" s="41"/>
-      <c r="O17" s="51">
+      <c r="O17" s="60">
         <v>915.38</v>
       </c>
       <c r="P17" s="41"/>
@@ -1945,9 +1942,9 @@
         <v>1</v>
       </c>
       <c r="J18" s="41">
-        <v>0</v>
-      </c>
-      <c r="K18" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="52" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="46" t="str">
@@ -1958,7 +1955,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="60">
         <v>733.89</v>
       </c>
       <c r="P18" s="41"/>
@@ -2006,7 +2003,7 @@
         <v>21</v>
       </c>
       <c r="N19" s="41"/>
-      <c r="O19" s="51">
+      <c r="O19" s="60">
         <v>3095.99</v>
       </c>
       <c r="P19" s="12"/>
@@ -2054,7 +2051,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="41"/>
-      <c r="O20" s="51">
+      <c r="O20" s="60">
         <v>779.76</v>
       </c>
       <c r="P20" s="12"/>
@@ -2083,7 +2080,7 @@
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="51"/>
-      <c r="P21" s="54"/>
+      <c r="P21" s="53"/>
       <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="2:17" ht="15.75">
@@ -2108,7 +2105,7 @@
       </c>
       <c r="N22" s="41"/>
       <c r="O22" s="51"/>
-      <c r="P22" s="54"/>
+      <c r="P22" s="53"/>
       <c r="Q22" s="41"/>
     </row>
     <row r="23" spans="2:17" ht="15.75">
@@ -2134,23 +2131,23 @@
       </c>
       <c r="N23" s="41"/>
       <c r="O23" s="51"/>
-      <c r="P23" s="54"/>
+      <c r="P23" s="53"/>
       <c r="Q23" s="41"/>
     </row>
-    <row r="24" spans="2:17" s="58" customFormat="1" ht="15.75">
+    <row r="24" spans="2:17" s="57" customFormat="1" ht="15.75">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54">
+      <c r="I24" s="53"/>
+      <c r="J24" s="53">
         <v>1</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57" t="str">
+      <c r="K24" s="55"/>
+      <c r="L24" s="56" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
@@ -2158,10 +2155,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="54"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="12"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
     </row>
     <row r="25" spans="2:17" ht="15.75">
       <c r="B25" s="10"/>
@@ -2470,10 +2467,10 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3032,7 +3029,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3264,10 +3261,10 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD5"/>
+      <selection pane="bottomRight" activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4042,7 +4039,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5815,7 +5812,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
@@ -8885,10 +8882,10 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
